--- a/王瀚庆-日志-20171009.xlsx
+++ b/王瀚庆-日志-20171009.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanghanqing/Documents/研究生/ForGraduation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="465" windowWidth="32520" windowHeight="20535" tabRatio="500"/>
+    <workbookView minimized="1" xWindow="12160" yWindow="800" windowWidth="32520" windowHeight="20540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -807,6 +810,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -814,10 +821,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,15 +1105,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.625" customWidth="1"/>
+    <col min="4" max="4" width="77.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -1127,7 +1130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="171" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="180" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>42979</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>42980</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>42989</v>
       </c>
@@ -1169,7 +1172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" ht="75" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>42995</v>
       </c>
@@ -1184,35 +1187,35 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
+      <c r="A6" s="10">
         <v>43017</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="213.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+    <row r="7" spans="1:4" ht="225" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+      <c r="A8" s="8">
         <v>43018</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
